--- a/data/trans_orig/P14A31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15184389-8111-401C-9FF1-FD5727BF8D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231C3C15-F49A-4E42-9145-E5F2F5F66874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3AC5648-1ACF-4313-86F6-38080BEF27A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57786AF3-1EC0-40F7-B239-A66D6EB82E75}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,244 +102,250 @@
     <t>72,78%</t>
   </si>
   <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -360,10 +366,10 @@
     <t>58,58%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>18,11%</t>
@@ -378,18 +384,15 @@
     <t>41,42%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
     <t>31,21%</t>
   </si>
   <si>
@@ -408,9 +411,6 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
     <t>15,38%</t>
   </si>
   <si>
@@ -429,64 +429,64 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>83,96%</t>
@@ -498,19 +498,19 @@
     <t>74,42%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>16,04%</t>
@@ -522,112 +522,112 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>57,65%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>46,6%</t>
+    <t>47,74%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>42,35%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>53,4%</t>
+    <t>52,26%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C9220-F358-4E84-97F9-3C39A5F67C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1952A096-2843-4F9D-975C-23FA27B59ED8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1792,13 +1792,13 @@
         <v>9982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1807,13 +1807,13 @@
         <v>14407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1843,13 +1843,13 @@
         <v>4603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1858,13 +1858,13 @@
         <v>4603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1932,13 @@
         <v>34909</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -1947,13 +1947,13 @@
         <v>34260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -1962,13 +1962,13 @@
         <v>69169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>5007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -1998,13 +1998,13 @@
         <v>18742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -2013,13 +2013,13 @@
         <v>23749</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EC4479-F864-46DC-AEEF-6070CDFB8417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46448478-B430-4EB5-8CD4-8A3040F80FC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2113,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2220,10 +2220,10 @@
         <v>3968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2250,13 +2250,13 @@
         <v>3969</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2271,13 @@
         <v>878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2289,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -2301,13 +2301,13 @@
         <v>2806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2390,13 +2390,13 @@
         <v>8657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2405,13 +2405,13 @@
         <v>15130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2441,7 +2441,7 @@
         <v>5643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>124</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A31-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231C3C15-F49A-4E42-9145-E5F2F5F66874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F92F17-EF05-4084-AAD9-B90C49872862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57786AF3-1EC0-40F7-B239-A66D6EB82E75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BFDF861-9540-4533-9210-53E2461C8DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,538 +96,538 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>45,33%</t>
   </si>
   <si>
     <t>46,4%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>54,67%</t>
   </si>
   <si>
     <t>53,6%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>60,89%</t>
+    <t>57,48%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>78,2%</t>
   </si>
   <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2016 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>43,94%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1952A096-2843-4F9D-975C-23FA27B59ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6A5A62-771F-4941-87A9-C881C017900A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>5108</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1342,13 +1342,13 @@
         <v>13444</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>3117</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1378,13 +1378,13 @@
         <v>5902</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1393,13 +1393,13 @@
         <v>9018</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1467,10 +1467,10 @@
         <v>11758</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1482,13 +1482,13 @@
         <v>14039</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -1497,13 +1497,13 @@
         <v>25797</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,13 +1518,13 @@
         <v>1890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1533,13 +1533,13 @@
         <v>5301</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -1548,13 +1548,13 @@
         <v>7191</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1637,13 +1637,13 @@
         <v>5131</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1652,13 +1652,13 @@
         <v>14613</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1679,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1688,13 +1688,13 @@
         <v>2936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1703,13 +1703,13 @@
         <v>2936</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1792,13 +1792,13 @@
         <v>9982</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1807,13 +1807,13 @@
         <v>14407</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1843,13 +1843,13 @@
         <v>4603</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1858,13 +1858,13 @@
         <v>4603</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1932,13 @@
         <v>34909</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -1947,13 +1947,13 @@
         <v>34260</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -1962,13 +1962,13 @@
         <v>69169</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>5007</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -1998,13 +1998,13 @@
         <v>18742</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -2013,13 +2013,13 @@
         <v>23749</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46448478-B430-4EB5-8CD4-8A3040F80FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE63390B-3359-465B-9377-411D11C8011B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2113,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2220,10 +2220,10 @@
         <v>3968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2250,13 +2250,13 @@
         <v>3969</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2271,13 @@
         <v>878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2289,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -2301,13 +2301,13 @@
         <v>2806</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2390,13 +2390,13 @@
         <v>8657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2405,13 +2405,13 @@
         <v>15130</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2441,7 +2441,7 @@
         <v>5643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>124</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
